--- a/ProbableCasesOverTimeByCounty/2021-01-25.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-01-25.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 01/24/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 01/25/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Probable 2021-01-24</t>
+  </si>
+  <si>
+    <t>Probable 2021-01-25</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1239,6 +1242,7 @@
     <col min="84" max="84" width="12.0" customWidth="true"/>
     <col min="85" max="85" width="12.0" customWidth="true"/>
     <col min="86" max="86" width="12.0" customWidth="true"/>
+    <col min="87" max="87" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1510,10 +1514,13 @@
       <c r="CH3" t="s" s="10">
         <v>87</v>
       </c>
+      <c r="CI3" t="s" s="10">
+        <v>88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -1768,12 +1775,15 @@
         <v>1128.0</v>
       </c>
       <c r="CH4" t="n">
+        <v>1137.0</v>
+      </c>
+      <c r="CI4" t="n">
         <v>1137.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2028,12 +2038,15 @@
         <v>0.0</v>
       </c>
       <c r="CH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2288,12 +2301,15 @@
         <v>2688.0</v>
       </c>
       <c r="CH6" t="n">
+        <v>2688.0</v>
+      </c>
+      <c r="CI6" t="n">
         <v>2688.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -2548,12 +2564,15 @@
         <v>239.0</v>
       </c>
       <c r="CH7" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="CI7" t="n">
         <v>240.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -2808,12 +2827,15 @@
         <v>88.0</v>
       </c>
       <c r="CH8" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="CI8" t="n">
         <v>88.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3068,12 +3090,15 @@
         <v>38.0</v>
       </c>
       <c r="CH9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CI9" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -3329,11 +3354,14 @@
       </c>
       <c r="CH10" t="n">
         <v>925.0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>926.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -3589,11 +3617,14 @@
       </c>
       <c r="CH11" t="n">
         <v>187.0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -3848,12 +3879,15 @@
         <v>198.0</v>
       </c>
       <c r="CH12" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="CI12" t="n">
         <v>198.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -4108,12 +4142,15 @@
         <v>194.0</v>
       </c>
       <c r="CH13" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="CI13" t="n">
         <v>194.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -4369,11 +4406,14 @@
       </c>
       <c r="CH14" t="n">
         <v>1192.0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>1193.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -4628,12 +4668,15 @@
         <v>172.0</v>
       </c>
       <c r="CH15" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="CI15" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -4888,12 +4931,15 @@
         <v>390.0</v>
       </c>
       <c r="CH16" t="n">
+        <v>393.0</v>
+      </c>
+      <c r="CI16" t="n">
         <v>393.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5148,12 +5194,15 @@
         <v>0.0</v>
       </c>
       <c r="CH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -5409,11 +5458,14 @@
       </c>
       <c r="CH18" t="n">
         <v>26224.0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>26405.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -5668,12 +5720,15 @@
         <v>55.0</v>
       </c>
       <c r="CH19" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CI19" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -5928,12 +5983,15 @@
         <v>6.0</v>
       </c>
       <c r="CH20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CI20" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -6188,12 +6246,15 @@
         <v>189.0</v>
       </c>
       <c r="CH21" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="CI21" t="n">
         <v>189.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -6448,12 +6509,15 @@
         <v>1445.0</v>
       </c>
       <c r="CH22" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="CI22" t="n">
         <v>1447.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -6708,12 +6772,15 @@
         <v>3142.0</v>
       </c>
       <c r="CH23" t="n">
+        <v>3241.0</v>
+      </c>
+      <c r="CI23" t="n">
         <v>3241.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -6968,12 +7035,15 @@
         <v>2874.0</v>
       </c>
       <c r="CH24" t="n">
+        <v>2874.0</v>
+      </c>
+      <c r="CI24" t="n">
         <v>2874.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -7228,12 +7298,15 @@
         <v>40.0</v>
       </c>
       <c r="CH25" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CI25" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -7488,12 +7561,15 @@
         <v>54.0</v>
       </c>
       <c r="CH26" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CI26" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -7748,12 +7824,15 @@
         <v>102.0</v>
       </c>
       <c r="CH27" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="CI27" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -8008,12 +8087,15 @@
         <v>1868.0</v>
       </c>
       <c r="CH28" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="CI28" t="n">
         <v>1868.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -8269,11 +8351,14 @@
       </c>
       <c r="CH29" t="n">
         <v>191.0</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -8528,12 +8613,15 @@
         <v>193.0</v>
       </c>
       <c r="CH30" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="CI30" t="n">
         <v>193.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -8789,11 +8877,14 @@
       </c>
       <c r="CH31" t="n">
         <v>182.0</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -9049,11 +9140,14 @@
       </c>
       <c r="CH32" t="n">
         <v>136.0</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -9308,12 +9402,15 @@
         <v>480.0</v>
       </c>
       <c r="CH33" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="CI33" t="n">
         <v>480.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -9568,12 +9665,15 @@
         <v>0.0</v>
       </c>
       <c r="CH34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -9828,12 +9928,15 @@
         <v>301.0</v>
       </c>
       <c r="CH35" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="CI35" t="n">
         <v>305.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -10088,12 +10191,15 @@
         <v>136.0</v>
       </c>
       <c r="CH36" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="CI36" t="n">
         <v>136.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -10348,12 +10454,15 @@
         <v>512.0</v>
       </c>
       <c r="CH37" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="CI37" t="n">
         <v>522.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -10608,12 +10717,15 @@
         <v>241.0</v>
       </c>
       <c r="CH38" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="CI38" t="n">
         <v>241.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -10868,12 +10980,15 @@
         <v>0.0</v>
       </c>
       <c r="CH39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -11128,12 +11243,15 @@
         <v>1507.0</v>
       </c>
       <c r="CH40" t="n">
+        <v>1507.0</v>
+      </c>
+      <c r="CI40" t="n">
         <v>1507.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -11388,12 +11506,15 @@
         <v>17.0</v>
       </c>
       <c r="CH41" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CI41" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -11648,12 +11769,15 @@
         <v>65.0</v>
       </c>
       <c r="CH42" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CI42" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -11908,12 +12032,15 @@
         <v>16.0</v>
       </c>
       <c r="CH43" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CI43" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -12168,12 +12295,15 @@
         <v>203.0</v>
       </c>
       <c r="CH44" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="CI44" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -12428,12 +12558,15 @@
         <v>171.0</v>
       </c>
       <c r="CH45" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="CI45" t="n">
         <v>171.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -12689,11 +12822,14 @@
       </c>
       <c r="CH46" t="n">
         <v>9345.0</v>
+      </c>
+      <c r="CI46" t="n">
+        <v>9405.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -12948,12 +13084,15 @@
         <v>69.0</v>
       </c>
       <c r="CH47" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CI47" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -13208,12 +13347,15 @@
         <v>176.0</v>
       </c>
       <c r="CH48" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="CI48" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -13468,12 +13610,15 @@
         <v>3419.0</v>
       </c>
       <c r="CH49" t="n">
+        <v>3419.0</v>
+      </c>
+      <c r="CI49" t="n">
         <v>3419.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -13728,12 +13873,15 @@
         <v>204.0</v>
       </c>
       <c r="CH50" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="CI50" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -13988,12 +14136,15 @@
         <v>106.0</v>
       </c>
       <c r="CH51" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CI51" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -14248,12 +14399,15 @@
         <v>349.0</v>
       </c>
       <c r="CH52" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="CI52" t="n">
         <v>349.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -14508,12 +14662,15 @@
         <v>130.0</v>
       </c>
       <c r="CH53" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CI53" t="n">
         <v>130.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -14768,12 +14925,15 @@
         <v>45.0</v>
       </c>
       <c r="CH54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CI54" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -15028,12 +15188,15 @@
         <v>308.0</v>
       </c>
       <c r="CH55" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="CI55" t="n">
         <v>309.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -15288,12 +15451,15 @@
         <v>269.0</v>
       </c>
       <c r="CH56" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="CI56" t="n">
         <v>269.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -15548,12 +15714,15 @@
         <v>137.0</v>
       </c>
       <c r="CH57" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CI57" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -15808,12 +15977,15 @@
         <v>18.0</v>
       </c>
       <c r="CH58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CI58" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -16068,12 +16240,15 @@
         <v>36.0</v>
       </c>
       <c r="CH59" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CI59" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -16329,11 +16504,14 @@
       </c>
       <c r="CH60" t="n">
         <v>28678.0</v>
+      </c>
+      <c r="CI60" t="n">
+        <v>28781.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -16588,12 +16766,15 @@
         <v>0.0</v>
       </c>
       <c r="CH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -16848,12 +17029,15 @@
         <v>594.0</v>
       </c>
       <c r="CH62" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="CI62" t="n">
         <v>594.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -17108,12 +17292,15 @@
         <v>101.0</v>
       </c>
       <c r="CH63" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="CI63" t="n">
         <v>103.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -17368,12 +17555,15 @@
         <v>9782.0</v>
       </c>
       <c r="CH64" t="n">
+        <v>9839.0</v>
+      </c>
+      <c r="CI64" t="n">
         <v>9839.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -17628,12 +17818,15 @@
         <v>0.0</v>
       </c>
       <c r="CH65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -17888,12 +18081,15 @@
         <v>46.0</v>
       </c>
       <c r="CH66" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CI66" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -18148,12 +18344,15 @@
         <v>89.0</v>
       </c>
       <c r="CH67" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CI67" t="n">
         <v>89.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -18408,12 +18607,15 @@
         <v>158.0</v>
       </c>
       <c r="CH68" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="CI68" t="n">
         <v>158.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -18668,12 +18870,15 @@
         <v>92.0</v>
       </c>
       <c r="CH69" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="CI69" t="n">
         <v>93.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -18928,12 +19133,15 @@
         <v>281.0</v>
       </c>
       <c r="CH70" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="CI70" t="n">
         <v>281.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -19188,12 +19396,15 @@
         <v>6333.0</v>
       </c>
       <c r="CH71" t="n">
+        <v>6333.0</v>
+      </c>
+      <c r="CI71" t="n">
         <v>6333.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -19448,12 +19659,15 @@
         <v>31.0</v>
       </c>
       <c r="CH72" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CI72" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -19708,12 +19922,15 @@
         <v>2100.0</v>
       </c>
       <c r="CH73" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="CI73" t="n">
         <v>2100.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -19968,12 +20185,15 @@
         <v>0.0</v>
       </c>
       <c r="CH74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -20228,12 +20448,15 @@
         <v>1147.0</v>
       </c>
       <c r="CH75" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="CI75" t="n">
         <v>1147.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -20488,12 +20711,15 @@
         <v>66.0</v>
       </c>
       <c r="CH76" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CI76" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -20748,12 +20974,15 @@
         <v>431.0</v>
       </c>
       <c r="CH77" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="CI77" t="n">
         <v>431.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -21009,11 +21238,14 @@
       </c>
       <c r="CH78" t="n">
         <v>671.0</v>
+      </c>
+      <c r="CI78" t="n">
+        <v>673.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -21268,12 +21500,15 @@
         <v>0.0</v>
       </c>
       <c r="CH79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -21528,12 +21763,15 @@
         <v>381.0</v>
       </c>
       <c r="CH80" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="CI80" t="n">
         <v>381.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -21788,12 +22026,15 @@
         <v>31.0</v>
       </c>
       <c r="CH81" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CI81" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -22048,12 +22289,15 @@
         <v>5433.0</v>
       </c>
       <c r="CH82" t="n">
+        <v>5433.0</v>
+      </c>
+      <c r="CI82" t="n">
         <v>5433.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -22308,12 +22552,15 @@
         <v>174.0</v>
       </c>
       <c r="CH83" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="CI83" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -22569,11 +22816,14 @@
       </c>
       <c r="CH84" t="n">
         <v>322.0</v>
+      </c>
+      <c r="CI84" t="n">
+        <v>324.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -22828,12 +23078,15 @@
         <v>403.0</v>
       </c>
       <c r="CH85" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="CI85" t="n">
         <v>403.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -23088,12 +23341,15 @@
         <v>0.0</v>
       </c>
       <c r="CH86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -23348,12 +23604,15 @@
         <v>3498.0</v>
       </c>
       <c r="CH87" t="n">
+        <v>3531.0</v>
+      </c>
+      <c r="CI87" t="n">
         <v>3531.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -23608,12 +23867,15 @@
         <v>91.0</v>
       </c>
       <c r="CH88" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="CI88" t="n">
         <v>91.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -23868,12 +24130,15 @@
         <v>536.0</v>
       </c>
       <c r="CH89" t="n">
+        <v>536.0</v>
+      </c>
+      <c r="CI89" t="n">
         <v>536.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -24128,12 +24393,15 @@
         <v>53.0</v>
       </c>
       <c r="CH90" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CI90" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -24389,11 +24657,14 @@
       </c>
       <c r="CH91" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CI91" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -24648,12 +24919,15 @@
         <v>172.0</v>
       </c>
       <c r="CH92" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="CI92" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -24908,12 +25182,15 @@
         <v>251.0</v>
       </c>
       <c r="CH93" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="CI93" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -25168,12 +25445,15 @@
         <v>0.0</v>
       </c>
       <c r="CH94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -25428,12 +25708,15 @@
         <v>3922.0</v>
       </c>
       <c r="CH95" t="n">
+        <v>3941.0</v>
+      </c>
+      <c r="CI95" t="n">
         <v>3941.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -25688,12 +25971,15 @@
         <v>213.0</v>
       </c>
       <c r="CH96" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="CI96" t="n">
         <v>215.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -25948,12 +26234,15 @@
         <v>1896.0</v>
       </c>
       <c r="CH97" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="CI97" t="n">
         <v>1896.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -26208,12 +26497,15 @@
         <v>0.0</v>
       </c>
       <c r="CH98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -26468,12 +26760,15 @@
         <v>79.0</v>
       </c>
       <c r="CH99" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CI99" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -26728,12 +27023,15 @@
         <v>39.0</v>
       </c>
       <c r="CH100" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CI100" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -26988,12 +27286,15 @@
         <v>362.0</v>
       </c>
       <c r="CH101" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="CI101" t="n">
         <v>362.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -27248,12 +27549,15 @@
         <v>54.0</v>
       </c>
       <c r="CH102" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CI102" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -27508,12 +27812,15 @@
         <v>1973.0</v>
       </c>
       <c r="CH103" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="CI103" t="n">
         <v>1973.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -27768,12 +28075,15 @@
         <v>0.0</v>
       </c>
       <c r="CH104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -28028,12 +28338,15 @@
         <v>1754.0</v>
       </c>
       <c r="CH105" t="n">
+        <v>1777.0</v>
+      </c>
+      <c r="CI105" t="n">
         <v>1777.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -28288,12 +28601,15 @@
         <v>26.0</v>
       </c>
       <c r="CH106" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CI106" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -28548,12 +28864,15 @@
         <v>207.0</v>
       </c>
       <c r="CH107" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="CI107" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -28808,12 +29127,15 @@
         <v>1620.0</v>
       </c>
       <c r="CH108" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="CI108" t="n">
         <v>1620.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -29068,12 +29390,15 @@
         <v>40.0</v>
       </c>
       <c r="CH109" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CI109" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -29328,12 +29653,15 @@
         <v>1486.0</v>
       </c>
       <c r="CH110" t="n">
+        <v>1489.0</v>
+      </c>
+      <c r="CI110" t="n">
         <v>1489.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -29588,12 +29916,15 @@
         <v>17665.0</v>
       </c>
       <c r="CH111" t="n">
+        <v>17665.0</v>
+      </c>
+      <c r="CI111" t="n">
         <v>17665.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -29848,12 +30179,15 @@
         <v>453.0</v>
       </c>
       <c r="CH112" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="CI112" t="n">
         <v>453.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -30108,12 +30442,15 @@
         <v>216.0</v>
       </c>
       <c r="CH113" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="CI113" t="n">
         <v>216.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -30368,12 +30705,15 @@
         <v>1811.0</v>
       </c>
       <c r="CH114" t="n">
+        <v>1811.0</v>
+      </c>
+      <c r="CI114" t="n">
         <v>1811.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -30628,12 +30968,15 @@
         <v>1239.0</v>
       </c>
       <c r="CH115" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="CI115" t="n">
         <v>1240.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -30888,12 +31231,15 @@
         <v>622.0</v>
       </c>
       <c r="CH116" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="CI116" t="n">
         <v>622.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -31148,12 +31494,15 @@
         <v>1548.0</v>
       </c>
       <c r="CH117" t="n">
+        <v>1546.0</v>
+      </c>
+      <c r="CI117" t="n">
         <v>1546.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -31408,12 +31757,15 @@
         <v>19.0</v>
       </c>
       <c r="CH118" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CI118" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -31668,12 +32020,15 @@
         <v>0.0</v>
       </c>
       <c r="CH119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -31928,12 +32283,15 @@
         <v>400.0</v>
       </c>
       <c r="CH120" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="CI120" t="n">
         <v>400.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -32188,12 +32546,15 @@
         <v>48.0</v>
       </c>
       <c r="CH121" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CI121" t="n">
         <v>48.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -32448,12 +32809,15 @@
         <v>64.0</v>
       </c>
       <c r="CH122" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CI122" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -32708,12 +33072,15 @@
         <v>117.0</v>
       </c>
       <c r="CH123" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="CI123" t="n">
         <v>117.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -32968,12 +33335,15 @@
         <v>1224.0</v>
       </c>
       <c r="CH124" t="n">
+        <v>1224.0</v>
+      </c>
+      <c r="CI124" t="n">
         <v>1224.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -33228,12 +33598,15 @@
         <v>10.0</v>
       </c>
       <c r="CH125" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CI125" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -33488,12 +33861,15 @@
         <v>0.0</v>
       </c>
       <c r="CH126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -33748,12 +34124,15 @@
         <v>22.0</v>
       </c>
       <c r="CH127" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CI127" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -34008,12 +34387,15 @@
         <v>445.0</v>
       </c>
       <c r="CH128" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="CI128" t="n">
         <v>449.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -34268,12 +34650,15 @@
         <v>1755.0</v>
       </c>
       <c r="CH129" t="n">
+        <v>1755.0</v>
+      </c>
+      <c r="CI129" t="n">
         <v>1755.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -34528,12 +34913,15 @@
         <v>591.0</v>
       </c>
       <c r="CH130" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="CI130" t="n">
         <v>591.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -34789,11 +35177,14 @@
       </c>
       <c r="CH131" t="n">
         <v>80.0</v>
+      </c>
+      <c r="CI131" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -35048,12 +35439,15 @@
         <v>1609.0</v>
       </c>
       <c r="CH132" t="n">
+        <v>1609.0</v>
+      </c>
+      <c r="CI132" t="n">
         <v>1609.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -35308,12 +35702,15 @@
         <v>871.0</v>
       </c>
       <c r="CH133" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="CI133" t="n">
         <v>871.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -35568,12 +35965,15 @@
         <v>14.0</v>
       </c>
       <c r="CH134" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CI134" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -35828,12 +36228,15 @@
         <v>34.0</v>
       </c>
       <c r="CH135" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CI135" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -36088,12 +36491,15 @@
         <v>1326.0</v>
       </c>
       <c r="CH136" t="n">
+        <v>1326.0</v>
+      </c>
+      <c r="CI136" t="n">
         <v>1326.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -36348,12 +36754,15 @@
         <v>40.0</v>
       </c>
       <c r="CH137" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CI137" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -36608,12 +37017,15 @@
         <v>6.0</v>
       </c>
       <c r="CH138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CI138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -36868,12 +37280,15 @@
         <v>8.0</v>
       </c>
       <c r="CH139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CI139" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -37128,12 +37543,15 @@
         <v>476.0</v>
       </c>
       <c r="CH140" t="n">
+        <v>482.0</v>
+      </c>
+      <c r="CI140" t="n">
         <v>482.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -37388,12 +37806,15 @@
         <v>65.0</v>
       </c>
       <c r="CH141" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CI141" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -37648,12 +38069,15 @@
         <v>2696.0</v>
       </c>
       <c r="CH142" t="n">
+        <v>2717.0</v>
+      </c>
+      <c r="CI142" t="n">
         <v>2717.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -37908,12 +38332,15 @@
         <v>402.0</v>
       </c>
       <c r="CH143" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="CI143" t="n">
         <v>402.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -38168,12 +38595,15 @@
         <v>105.0</v>
       </c>
       <c r="CH144" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="CI144" t="n">
         <v>105.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -38428,12 +38858,15 @@
         <v>191.0</v>
       </c>
       <c r="CH145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="CI145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -38688,12 +39121,15 @@
         <v>235.0</v>
       </c>
       <c r="CH146" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="CI146" t="n">
         <v>235.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -38948,12 +39384,15 @@
         <v>735.0</v>
       </c>
       <c r="CH147" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="CI147" t="n">
         <v>736.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -39208,12 +39647,15 @@
         <v>226.0</v>
       </c>
       <c r="CH148" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="CI148" t="n">
         <v>227.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -39468,12 +39910,15 @@
         <v>1084.0</v>
       </c>
       <c r="CH149" t="n">
+        <v>1106.0</v>
+      </c>
+      <c r="CI149" t="n">
         <v>1106.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -39729,11 +40174,14 @@
       </c>
       <c r="CH150" t="n">
         <v>267.0</v>
+      </c>
+      <c r="CI150" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -39988,12 +40436,15 @@
         <v>19.0</v>
       </c>
       <c r="CH151" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CI151" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -40248,12 +40699,15 @@
         <v>225.0</v>
       </c>
       <c r="CH152" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="CI152" t="n">
         <v>225.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -40509,11 +40963,14 @@
       </c>
       <c r="CH153" t="n">
         <v>286.0</v>
+      </c>
+      <c r="CI153" t="n">
+        <v>287.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -40768,12 +41225,15 @@
         <v>0.0</v>
       </c>
       <c r="CH154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -41028,12 +41488,15 @@
         <v>0.0</v>
       </c>
       <c r="CH155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -41288,12 +41751,15 @@
         <v>0.0</v>
       </c>
       <c r="CH156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -41548,12 +42014,15 @@
         <v>111.0</v>
       </c>
       <c r="CH157" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="CI157" t="n">
         <v>110.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -41808,12 +42277,15 @@
         <v>0.0</v>
       </c>
       <c r="CH158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -42068,12 +42540,15 @@
         <v>14.0</v>
       </c>
       <c r="CH159" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CI159" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -42328,12 +42803,15 @@
         <v>170.0</v>
       </c>
       <c r="CH160" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="CI160" t="n">
         <v>170.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -42588,12 +43066,15 @@
         <v>127.0</v>
       </c>
       <c r="CH161" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="CI161" t="n">
         <v>131.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -42848,12 +43329,15 @@
         <v>249.0</v>
       </c>
       <c r="CH162" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="CI162" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -43108,12 +43592,15 @@
         <v>131.0</v>
       </c>
       <c r="CH163" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CI163" t="n">
         <v>130.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -43369,11 +43856,14 @@
       </c>
       <c r="CH164" t="n">
         <v>275.0</v>
+      </c>
+      <c r="CI164" t="n">
+        <v>276.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -43628,12 +44118,15 @@
         <v>0.0</v>
       </c>
       <c r="CH165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -43888,12 +44381,15 @@
         <v>851.0</v>
       </c>
       <c r="CH166" t="n">
+        <v>851.0</v>
+      </c>
+      <c r="CI166" t="n">
         <v>851.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -44148,12 +44644,15 @@
         <v>56.0</v>
       </c>
       <c r="CH167" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CI167" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -44408,12 +44907,15 @@
         <v>0.0</v>
       </c>
       <c r="CH168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -44669,11 +45171,14 @@
       </c>
       <c r="CH169" t="n">
         <v>771.0</v>
+      </c>
+      <c r="CI169" t="n">
+        <v>774.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -44928,12 +45433,15 @@
         <v>26.0</v>
       </c>
       <c r="CH170" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CI170" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -45188,12 +45696,15 @@
         <v>0.0</v>
       </c>
       <c r="CH171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -45448,12 +45959,15 @@
         <v>262.0</v>
       </c>
       <c r="CH172" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="CI172" t="n">
         <v>262.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -45708,12 +46222,15 @@
         <v>5381.0</v>
       </c>
       <c r="CH173" t="n">
+        <v>5381.0</v>
+      </c>
+      <c r="CI173" t="n">
         <v>5381.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -45968,12 +46485,15 @@
         <v>266.0</v>
       </c>
       <c r="CH174" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="CI174" t="n">
         <v>266.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -46228,12 +46748,15 @@
         <v>211.0</v>
       </c>
       <c r="CH175" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="CI175" t="n">
         <v>218.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -46488,12 +47011,15 @@
         <v>46.0</v>
       </c>
       <c r="CH176" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CI176" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -46748,12 +47274,15 @@
         <v>788.0</v>
       </c>
       <c r="CH177" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="CI177" t="n">
         <v>789.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -47008,12 +47537,15 @@
         <v>1906.0</v>
       </c>
       <c r="CH178" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="CI178" t="n">
         <v>1906.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -47268,12 +47800,15 @@
         <v>250.0</v>
       </c>
       <c r="CH179" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="CI179" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -47528,12 +48063,15 @@
         <v>0.0</v>
       </c>
       <c r="CH180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -47789,11 +48327,14 @@
       </c>
       <c r="CH181" t="n">
         <v>8991.0</v>
+      </c>
+      <c r="CI181" t="n">
+        <v>9019.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -48048,12 +48589,15 @@
         <v>97.0</v>
       </c>
       <c r="CH182" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="CI182" t="n">
         <v>97.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -48308,12 +48852,15 @@
         <v>82.0</v>
       </c>
       <c r="CH183" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CI183" t="n">
         <v>82.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -48568,12 +49115,15 @@
         <v>2741.0</v>
       </c>
       <c r="CH184" t="n">
+        <v>2741.0</v>
+      </c>
+      <c r="CI184" t="n">
         <v>2741.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -48828,12 +49378,15 @@
         <v>297.0</v>
       </c>
       <c r="CH185" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="CI185" t="n">
         <v>297.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -49088,12 +49641,15 @@
         <v>433.0</v>
       </c>
       <c r="CH186" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="CI186" t="n">
         <v>436.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -49348,12 +49904,15 @@
         <v>2112.0</v>
       </c>
       <c r="CH187" t="n">
+        <v>2112.0</v>
+      </c>
+      <c r="CI187" t="n">
         <v>2112.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -49608,12 +50167,15 @@
         <v>326.0</v>
       </c>
       <c r="CH188" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="CI188" t="n">
         <v>326.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -49868,12 +50430,15 @@
         <v>225.0</v>
       </c>
       <c r="CH189" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="CI189" t="n">
         <v>225.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -50128,12 +50693,15 @@
         <v>1292.0</v>
       </c>
       <c r="CH190" t="n">
+        <v>1292.0</v>
+      </c>
+      <c r="CI190" t="n">
         <v>1292.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -50388,12 +50956,15 @@
         <v>0.0</v>
       </c>
       <c r="CH191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -50648,12 +51219,15 @@
         <v>39.0</v>
       </c>
       <c r="CH192" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CI192" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -50908,12 +51482,15 @@
         <v>334.0</v>
       </c>
       <c r="CH193" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="CI193" t="n">
         <v>334.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -51168,12 +51745,15 @@
         <v>0.0</v>
       </c>
       <c r="CH194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -51428,12 +52008,15 @@
         <v>171.0</v>
       </c>
       <c r="CH195" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="CI195" t="n">
         <v>173.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -51688,12 +52271,15 @@
         <v>22.0</v>
       </c>
       <c r="CH196" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CI196" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -51948,12 +52534,15 @@
         <v>215.0</v>
       </c>
       <c r="CH197" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="CI197" t="n">
         <v>215.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -52208,12 +52797,15 @@
         <v>695.0</v>
       </c>
       <c r="CH198" t="n">
+        <v>692.0</v>
+      </c>
+      <c r="CI198" t="n">
         <v>692.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -52468,12 +53060,15 @@
         <v>50.0</v>
       </c>
       <c r="CH199" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CI199" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -52728,12 +53323,15 @@
         <v>3.0</v>
       </c>
       <c r="CH200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CI200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -52988,12 +53586,15 @@
         <v>271.0</v>
       </c>
       <c r="CH201" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="CI201" t="n">
         <v>271.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -53248,12 +53849,15 @@
         <v>1457.0</v>
       </c>
       <c r="CH202" t="n">
+        <v>1457.0</v>
+      </c>
+      <c r="CI202" t="n">
         <v>1457.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -53508,12 +54112,15 @@
         <v>440.0</v>
       </c>
       <c r="CH203" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="CI203" t="n">
         <v>440.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -53768,12 +54375,15 @@
         <v>1360.0</v>
       </c>
       <c r="CH204" t="n">
+        <v>1373.0</v>
+      </c>
+      <c r="CI204" t="n">
         <v>1373.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -54028,12 +54638,15 @@
         <v>296.0</v>
       </c>
       <c r="CH205" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="CI205" t="n">
         <v>296.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -54288,12 +54901,15 @@
         <v>184.0</v>
       </c>
       <c r="CH206" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="CI206" t="n">
         <v>184.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -54548,12 +55164,15 @@
         <v>188.0</v>
       </c>
       <c r="CH207" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="CI207" t="n">
         <v>189.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -54808,12 +55427,15 @@
         <v>872.0</v>
       </c>
       <c r="CH208" t="n">
+        <v>872.0</v>
+      </c>
+      <c r="CI208" t="n">
         <v>872.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -55068,12 +55690,15 @@
         <v>125.0</v>
       </c>
       <c r="CH209" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="CI209" t="n">
         <v>125.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -55328,12 +55953,15 @@
         <v>83.0</v>
       </c>
       <c r="CH210" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="CI210" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -55588,12 +56216,15 @@
         <v>0.0</v>
       </c>
       <c r="CH211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -55848,12 +56479,15 @@
         <v>96.0</v>
       </c>
       <c r="CH212" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CI212" t="n">
         <v>96.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -56108,12 +56742,15 @@
         <v>545.0</v>
       </c>
       <c r="CH213" t="n">
+        <v>545.0</v>
+      </c>
+      <c r="CI213" t="n">
         <v>545.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -56368,12 +57005,15 @@
         <v>18.0</v>
       </c>
       <c r="CH214" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CI214" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -56628,12 +57268,15 @@
         <v>6961.0</v>
       </c>
       <c r="CH215" t="n">
+        <v>6986.0</v>
+      </c>
+      <c r="CI215" t="n">
         <v>6986.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -56888,12 +57531,15 @@
         <v>417.0</v>
       </c>
       <c r="CH216" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="CI216" t="n">
         <v>417.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -57148,12 +57794,15 @@
         <v>1430.0</v>
       </c>
       <c r="CH217" t="n">
+        <v>1445.0</v>
+      </c>
+      <c r="CI217" t="n">
         <v>1445.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -57408,12 +58057,15 @@
         <v>245.0</v>
       </c>
       <c r="CH218" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="CI218" t="n">
         <v>245.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -57668,12 +58320,15 @@
         <v>54.0</v>
       </c>
       <c r="CH219" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CI219" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -57928,12 +58583,15 @@
         <v>96.0</v>
       </c>
       <c r="CH220" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CI220" t="n">
         <v>96.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -58188,12 +58846,15 @@
         <v>162.0</v>
       </c>
       <c r="CH221" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="CI221" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -58448,12 +59109,15 @@
         <v>335.0</v>
       </c>
       <c r="CH222" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="CI222" t="n">
         <v>335.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -58709,11 +59373,14 @@
       </c>
       <c r="CH223" t="n">
         <v>27697.0</v>
+      </c>
+      <c r="CI223" t="n">
+        <v>27991.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -58969,11 +59636,14 @@
       </c>
       <c r="CH224" t="n">
         <v>7484.0</v>
+      </c>
+      <c r="CI224" t="n">
+        <v>7521.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -59228,12 +59898,15 @@
         <v>8.0</v>
       </c>
       <c r="CH225" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CI225" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -59488,12 +60161,15 @@
         <v>0.0</v>
       </c>
       <c r="CH226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -59748,12 +60424,15 @@
         <v>22.0</v>
       </c>
       <c r="CH227" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CI227" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -60008,12 +60687,15 @@
         <v>767.0</v>
       </c>
       <c r="CH228" t="n">
+        <v>767.0</v>
+      </c>
+      <c r="CI228" t="n">
         <v>767.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -60269,11 +60951,14 @@
       </c>
       <c r="CH229" t="n">
         <v>7469.0</v>
+      </c>
+      <c r="CI229" t="n">
+        <v>7505.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -60528,12 +61213,15 @@
         <v>0.0</v>
       </c>
       <c r="CH230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -60788,12 +61476,15 @@
         <v>142.0</v>
       </c>
       <c r="CH231" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="CI231" t="n">
         <v>142.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -61048,12 +61739,15 @@
         <v>567.0</v>
       </c>
       <c r="CH232" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="CI232" t="n">
         <v>567.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -61308,12 +62002,15 @@
         <v>1617.0</v>
       </c>
       <c r="CH233" t="n">
+        <v>1630.0</v>
+      </c>
+      <c r="CI233" t="n">
         <v>1630.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -61568,12 +62265,15 @@
         <v>235.0</v>
       </c>
       <c r="CH234" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="CI234" t="n">
         <v>235.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -61829,11 +62529,14 @@
       </c>
       <c r="CH235" t="n">
         <v>90.0</v>
+      </c>
+      <c r="CI235" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -62088,12 +62791,15 @@
         <v>0.0</v>
       </c>
       <c r="CH236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -62348,12 +63054,15 @@
         <v>1288.0</v>
       </c>
       <c r="CH237" t="n">
+        <v>1288.0</v>
+      </c>
+      <c r="CI237" t="n">
         <v>1288.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -62608,12 +63317,15 @@
         <v>9.0</v>
       </c>
       <c r="CH238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CI238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -62868,12 +63580,15 @@
         <v>664.0</v>
       </c>
       <c r="CH239" t="n">
+        <v>670.0</v>
+      </c>
+      <c r="CI239" t="n">
         <v>670.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -63129,11 +63844,14 @@
       </c>
       <c r="CH240" t="n">
         <v>284.0</v>
+      </c>
+      <c r="CI240" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -63388,12 +64106,15 @@
         <v>395.0</v>
       </c>
       <c r="CH241" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="CI241" t="n">
         <v>395.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -63649,11 +64370,14 @@
       </c>
       <c r="CH242" t="n">
         <v>417.0</v>
+      </c>
+      <c r="CI242" t="n">
+        <v>419.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -63908,12 +64632,15 @@
         <v>0.0</v>
       </c>
       <c r="CH243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -64169,11 +64896,14 @@
       </c>
       <c r="CH244" t="n">
         <v>304.0</v>
+      </c>
+      <c r="CI244" t="n">
+        <v>311.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -64428,12 +65158,15 @@
         <v>40.0</v>
       </c>
       <c r="CH245" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CI245" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -64688,12 +65421,15 @@
         <v>0.0</v>
       </c>
       <c r="CH246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -64948,12 +65684,15 @@
         <v>270.0</v>
       </c>
       <c r="CH247" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="CI247" t="n">
         <v>270.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -65208,12 +65947,15 @@
         <v>147.0</v>
       </c>
       <c r="CH248" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="CI248" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -65468,12 +66210,15 @@
         <v>3970.0</v>
       </c>
       <c r="CH249" t="n">
+        <v>3970.0</v>
+      </c>
+      <c r="CI249" t="n">
         <v>3970.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -65729,11 +66474,14 @@
       </c>
       <c r="CH250" t="n">
         <v>579.0</v>
+      </c>
+      <c r="CI250" t="n">
+        <v>580.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -65988,12 +66736,15 @@
         <v>176.0</v>
       </c>
       <c r="CH251" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="CI251" t="n">
         <v>177.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -66248,12 +66999,15 @@
         <v>850.0</v>
       </c>
       <c r="CH252" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="CI252" t="n">
         <v>850.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -66508,12 +67262,15 @@
         <v>1145.0</v>
       </c>
       <c r="CH253" t="n">
+        <v>1150.0</v>
+      </c>
+      <c r="CI253" t="n">
         <v>1150.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -66768,12 +67525,15 @@
         <v>0.0</v>
       </c>
       <c r="CH254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -67028,12 +67788,15 @@
         <v>183.0</v>
       </c>
       <c r="CH255" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="CI255" t="n">
         <v>183.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -67288,12 +68051,15 @@
         <v>146.0</v>
       </c>
       <c r="CH256" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="CI256" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -67548,6 +68314,9 @@
         <v>82.0</v>
       </c>
       <c r="CH257" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CI257" t="n">
         <v>82.0</v>
       </c>
     </row>
